--- a/mice_results.xlsx
+++ b/mice_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivanna\Documents\DATA\Ivanna\Research_Book\Gait Scaling by Silhouette length\SilhouetteLength_GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivanna\Documents\DATA\Ivanna\Research_Book\Gait Scaling by Silhouette length\Code_SilhouetteLength_GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,9 +54,6 @@
     <t>Run007</t>
   </si>
   <si>
-    <t>Silhouette.Length</t>
-  </si>
-  <si>
     <t>Front.Stride.Length</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Scaled.Hind.Swing.Speed</t>
+  </si>
+  <si>
+    <t>Silhouette.Length (mm)</t>
   </si>
 </sst>
 </file>
@@ -427,22 +427,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
